--- a/[B3]Echipa3/Documentatie/Raport.xlsx
+++ b/[B3]Echipa3/Documentatie/Raport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RaportActivitate" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>Nr. Crt.</t>
   </si>
@@ -345,13 +345,78 @@
     <t>Week 4</t>
   </si>
   <si>
-    <t>For the next week we plan to continue with the implementation of the module and make the basic functions for scanning. (Week 4)</t>
-  </si>
-  <si>
     <t>Each one of us created a basic prototype of the classes which he had to implement. We reviewed them and corrected</t>
   </si>
   <si>
     <t>any mistake that might have slipped through.</t>
+  </si>
+  <si>
+    <t>― + X</t>
+  </si>
+  <si>
+    <t>― + ―</t>
+  </si>
+  <si>
+    <t>X + X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>―</t>
+    </r>
+  </si>
+  <si>
+    <t>X + ―</t>
+  </si>
+  <si>
+    <t>http://git.cgsecurity.org/testdisk.git/</t>
+  </si>
+  <si>
+    <t>https://github.com/spullen/NTFS-Parser</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Java_Native_Interface</t>
+  </si>
+  <si>
+    <t>http://www.codeproject.com/Articles/9293/Undelete-a-file-in-NTFS</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/8819188/c-sharp-classes-to-undelete-files</t>
+  </si>
+  <si>
+    <t>We presented our progress regarding the documentation and the class diagrams and we received maximum grades.</t>
+  </si>
+  <si>
+    <t>We discussed with the client and presented our sugestions about the modifications. We all agreed on the details</t>
+  </si>
+  <si>
+    <t>and started to implement the rest of the module.</t>
+  </si>
+  <si>
+    <t>A meeting regarding a good disk scan algorithm was needed. Each one of us started to search on the internet in hope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of finding a good and relevant algorithm or open source implementation. That proved to be a difficult task, because </t>
+  </si>
+  <si>
+    <t>Java isn't able to access the native language of the disk with ease. So we had to improvise and search for alternatives.</t>
+  </si>
+  <si>
+    <t>We found some prototypes and we took them to present to the client.</t>
+  </si>
+  <si>
+    <t>For the next week we plan to continue with the implementation of the module and make the basic functions for scanning. (Week 5)</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,10 +1194,10 @@
         <v>40</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -1172,10 +1237,10 @@
         <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1215,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1258,10 +1323,10 @@
         <v>40</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1301,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1344,10 +1409,10 @@
         <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1387,10 +1452,10 @@
         <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1412,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K107"/>
+  <dimension ref="B1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,49 +1790,121 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C97" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C98" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C99" s="32"/>
     </row>
-    <row r="100" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C100" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D100" s="35"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="36"/>
       <c r="D101" s="35"/>
     </row>
-    <row r="102" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C102" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="35"/>
+    </row>
+    <row r="103" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C103" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="35"/>
-    </row>
-    <row r="103" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C103" s="32" t="s">
-        <v>105</v>
-      </c>
       <c r="D103" s="35"/>
     </row>
-    <row r="105" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B105" s="28" t="s">
+    <row r="104" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C104" s="32"/>
+      <c r="D104" s="35"/>
+    </row>
+    <row r="105" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C105" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" s="35"/>
+    </row>
+    <row r="106" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C106" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="35"/>
+    </row>
+    <row r="107" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C107" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="35"/>
+    </row>
+    <row r="108" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C108" s="32"/>
+      <c r="D108" s="35"/>
+    </row>
+    <row r="109" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C109" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" s="35"/>
+    </row>
+    <row r="110" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C110" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" s="35"/>
+    </row>
+    <row r="111" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C111" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="35"/>
+    </row>
+    <row r="112" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C112" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="35"/>
+    </row>
+    <row r="113" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C113" s="32"/>
+      <c r="D113" s="35"/>
+    </row>
+    <row r="114" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C114" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="35"/>
+    </row>
+    <row r="115" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="32"/>
+      <c r="D115" s="35"/>
+    </row>
+    <row r="116" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C116" s="32"/>
+      <c r="D116" s="35"/>
+    </row>
+    <row r="117" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C117" s="32"/>
+      <c r="D117" s="35"/>
+    </row>
+    <row r="119" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B119" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C107" s="32" t="s">
-        <v>103</v>
+    <row r="121" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C121" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,6 +1975,60 @@
       <c r="H7" s="26"/>
       <c r="I7" s="27"/>
     </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
